--- a/gfconf/conf/sign.xlsx
+++ b/gfconf/conf/sign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15728598-C784-4879-B1A6-6D20F26E18F4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEB2C5BF-0A98-49B8-8552-A5FF31FAFE2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>编号</t>
   </si>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>赠送金币*666</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +137,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -191,6 +203,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,7 +511,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -522,8 +535,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>

--- a/gfconf/conf/sign.xlsx
+++ b/gfconf/conf/sign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEB2C5BF-0A98-49B8-8552-A5FF31FAFE2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E9366EA-4080-4D15-B328-466EC4103830}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>编号</t>
   </si>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>day</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCount</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +519,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -538,11 +546,11 @@
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
